--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.1/percents/scores-25.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.1/percents/scores-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,156 +67,108 @@
     <t>evil</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>dark</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>destroying</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
     <t>dumb</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>sad</t>
   </si>
   <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>biased</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>0.95-negative</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -226,30 +178,27 @@
     <t>amazing</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>fascinating</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -259,58 +208,16 @@
     <t>media</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>discussion</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
     <t>incredible</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>business</t>
   </si>
   <si>
-    <t>mack</t>
+    <t>essential</t>
   </si>
   <si>
     <t>smart</t>
@@ -319,43 +226,31 @@
     <t>love</t>
   </si>
   <si>
-    <t>wat</t>
+    <t>holy</t>
   </si>
   <si>
     <t>insight</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>dilemma</t>
-  </si>
-  <si>
-    <t>netflix</t>
   </si>
   <si>
     <t>…</t>
@@ -737,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS57"/>
+  <dimension ref="A1:BS38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,28 +640,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="S1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AK1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AT1" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="BC1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="BL1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -968,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03760649807189124</v>
+        <v>0.03755800242534685</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -986,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>0.1134045682638842</v>
+        <v>0.1410756835166253</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1010,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.04459349784798215</v>
+        <v>0.04452689641986406</v>
       </c>
       <c r="U3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1034,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AC3">
-        <v>0.058729869221412</v>
+        <v>0.08407411355414632</v>
       </c>
       <c r="AD3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1058,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.2446510999424312</v>
+        <v>0.05471220302723537</v>
       </c>
       <c r="AM3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1082,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AU3">
-        <v>0.04419066273855236</v>
+        <v>0.06573719261013003</v>
       </c>
       <c r="AV3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AW3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1106,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.2078970101483444</v>
+        <v>0.07100869359902948</v>
       </c>
       <c r="BE3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1130,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="BM3">
-        <v>0.03745877659555251</v>
+        <v>0.05668829001348686</v>
       </c>
       <c r="BN3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BO3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1154,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1162,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01153616260519531</v>
+        <v>0.01165460272256254</v>
       </c>
       <c r="C4">
         <v>26</v>
@@ -1183,16 +1078,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.1030807749587166</v>
+        <v>0.1002130931660599</v>
       </c>
       <c r="L4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1204,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01367167083121714</v>
+        <v>0.01381237893545476</v>
       </c>
       <c r="U4">
         <v>26</v>
@@ -1231,16 +1126,16 @@
         <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="AC4">
-        <v>0.05414007105641287</v>
+        <v>0.06407771044867228</v>
       </c>
       <c r="AD4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1252,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.07765756627310631</v>
+        <v>0.01696605186198957</v>
       </c>
       <c r="AM4">
         <v>26</v>
@@ -1279,16 +1174,16 @@
         <v>2</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="AU4">
-        <v>0.04112566015130047</v>
+        <v>0.05245326472539358</v>
       </c>
       <c r="AV4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AW4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1300,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.06825477398157272</v>
+        <v>0.02201192854444525</v>
       </c>
       <c r="BE4">
         <v>26</v>
@@ -1327,16 +1222,16 @@
         <v>2</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="BM4">
-        <v>0.03509977885339621</v>
+        <v>0.04671683397941062</v>
       </c>
       <c r="BN4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BO4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1348,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1356,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.008937376754978996</v>
+        <v>0.009029574165856849</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -1377,16 +1272,16 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.086388706556864</v>
+        <v>0.1000932581940012</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1398,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.01046634949679199</v>
+        <v>0.01057615640148437</v>
       </c>
       <c r="U5">
         <v>20</v>
@@ -1425,16 +1320,16 @@
         <v>15</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="AC5">
-        <v>0.0473546085637027</v>
+        <v>0.06384437374308874</v>
       </c>
       <c r="AD5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1446,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.05968179291784873</v>
+        <v>0.01283654582278614</v>
       </c>
       <c r="AM5">
         <v>20</v>
@@ -1473,16 +1368,16 @@
         <v>15</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="AU5">
-        <v>0.03697458232608432</v>
+        <v>0.05218341547610254</v>
       </c>
       <c r="AV5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1494,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.05266543884061075</v>
+        <v>0.01645316889686897</v>
       </c>
       <c r="BE5">
         <v>20</v>
@@ -1521,16 +1416,16 @@
         <v>15</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="BM5">
-        <v>0.0321684634450177</v>
+        <v>0.04642896652234228</v>
       </c>
       <c r="BN5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BO5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1542,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1550,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.005120316226882336</v>
+        <v>0.005172971365795249</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -1571,16 +1466,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.07949949906631815</v>
+        <v>0.09987755524429547</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1592,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.00604367916948638</v>
+        <v>0.0061062877667642</v>
       </c>
       <c r="U6">
         <v>11</v>
@@ -1619,16 +1514,16 @@
         <v>3</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="AC6">
-        <v>0.04428351972925797</v>
+        <v>0.06342436767303843</v>
       </c>
       <c r="AD6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1640,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.03636399657972985</v>
+        <v>0.007470365583564973</v>
       </c>
       <c r="AM6">
         <v>11</v>
@@ -1667,16 +1562,16 @@
         <v>3</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="AU6">
-        <v>0.03491881532219946</v>
+        <v>0.05169768682737864</v>
       </c>
       <c r="AV6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1688,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.03364193164671805</v>
+        <v>0.009652890090446212</v>
       </c>
       <c r="BE6">
         <v>11</v>
@@ -1715,16 +1610,16 @@
         <v>3</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="BM6">
-        <v>0.03058280675766828</v>
+        <v>0.04591080509961926</v>
       </c>
       <c r="BN6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BO6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1736,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1744,13 +1639,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.004267788583219172</v>
+        <v>0.0038771589994259</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1762,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.05274410355622835</v>
+        <v>0.06364527470193328</v>
       </c>
       <c r="L7">
         <v>14</v>
@@ -1792,13 +1687,13 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.005040476680120471</v>
+        <v>0.004567510581700597</v>
       </c>
       <c r="U7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1810,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="AC7">
-        <v>0.0333459713249155</v>
+        <v>0.04648695352146095</v>
       </c>
       <c r="AD7">
         <v>14</v>
@@ -1840,13 +1735,13 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.03098936121915489</v>
+        <v>0.005576485971179001</v>
       </c>
       <c r="AM7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1858,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="AU7">
-        <v>0.02818758079269174</v>
+        <v>0.0409672673228972</v>
       </c>
       <c r="AV7">
         <v>14</v>
@@ -1888,13 +1783,13 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.02918377155508316</v>
+        <v>0.007190846594344448</v>
       </c>
       <c r="BE7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -1906,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="BM7">
-        <v>0.02579916311769709</v>
+        <v>0.03824341292404092</v>
       </c>
       <c r="BN7">
         <v>14</v>
@@ -1938,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003835086805258398</v>
+        <v>0.003874589474505362</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1959,16 +1854,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.03581160481874766</v>
+        <v>0.04875241139876625</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1980,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>280</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.004508295143823856</v>
+        <v>0.004555305338328043</v>
       </c>
       <c r="U8">
         <v>8</v>
@@ -2007,10 +1902,10 @@
         <v>4</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AC8">
-        <v>0.02615646675217439</v>
+        <v>0.03641875095704887</v>
       </c>
       <c r="AD8">
         <v>9</v>
@@ -2034,7 +1929,7 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.02801268927737793</v>
+        <v>0.005550197754684271</v>
       </c>
       <c r="AM8">
         <v>8</v>
@@ -2055,10 +1950,10 @@
         <v>4</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AU8">
-        <v>0.02358895292166608</v>
+        <v>0.03424434860574167</v>
       </c>
       <c r="AV8">
         <v>9</v>
@@ -2082,7 +1977,7 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.02660862043644426</v>
+        <v>0.007142025620854236</v>
       </c>
       <c r="BE8">
         <v>8</v>
@@ -2103,10 +1998,10 @@
         <v>4</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="BM8">
-        <v>0.02240015277649064</v>
+        <v>0.0331713246698823</v>
       </c>
       <c r="BN8">
         <v>9</v>
@@ -2132,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002990284708950265</v>
+        <v>0.003020992663274612</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2153,16 +2048,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.03357604188480708</v>
+        <v>0.04317802903503293</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2174,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>282</v>
+        <v>2</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003541789004394341</v>
+        <v>0.003578274855109187</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -2201,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC9">
-        <v>0.02338840947775286</v>
+        <v>0.03254080542285749</v>
       </c>
       <c r="AD9">
         <v>7</v>
@@ -2228,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.02298527903059034</v>
+        <v>0.004392764212405874</v>
       </c>
       <c r="AM9">
         <v>6</v>
@@ -2249,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AU9">
-        <v>0.02186884845213836</v>
+        <v>0.03172788463842572</v>
       </c>
       <c r="AV9">
         <v>7</v>
@@ -2276,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.0225657456321951</v>
+        <v>0.005695947184080572</v>
       </c>
       <c r="BE9">
         <v>6</v>
@@ -2297,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BM9">
-        <v>0.02116526728876218</v>
+        <v>0.03132672454074258</v>
       </c>
       <c r="BN9">
         <v>7</v>
@@ -2326,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002987709526498588</v>
+        <v>0.003018423138354074</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2347,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.02910272007992287</v>
+        <v>0.03506782515039039</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -2374,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003529556887748876</v>
+        <v>0.003566069611736634</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -2395,10 +2290,10 @@
         <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="AC10">
-        <v>0.02197071066720619</v>
+        <v>0.0305551653146451</v>
       </c>
       <c r="AD10">
         <v>6</v>
@@ -2422,7 +2317,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.02286953732599455</v>
+        <v>0.004366475995911144</v>
       </c>
       <c r="AM10">
         <v>6</v>
@@ -2443,10 +2338,10 @@
         <v>1</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="AU10">
-        <v>0.0209715003802237</v>
+        <v>0.03041568280490954</v>
       </c>
       <c r="AV10">
         <v>6</v>
@@ -2470,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.02242731720306652</v>
+        <v>0.005647126210590361</v>
       </c>
       <c r="BE10">
         <v>6</v>
@@ -2491,10 +2386,10 @@
         <v>1</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="BM10">
-        <v>0.02050884996716228</v>
+        <v>0.03034685098475906</v>
       </c>
       <c r="BN10">
         <v>6</v>
@@ -2520,7 +2415,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002562733295892844</v>
+        <v>0.002589055207818162</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2541,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.02572824184920813</v>
+        <v>0.03098875621365738</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -2568,7 +2463,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.003034071701388654</v>
+        <v>0.003065349126754653</v>
       </c>
       <c r="U11">
         <v>5</v>
@@ -2589,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AC11">
-        <v>0.02197071066720619</v>
+        <v>0.0305551653146451</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -2616,7 +2511,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.02024009049800496</v>
+        <v>0.003761471008277216</v>
       </c>
       <c r="AM11">
         <v>5</v>
@@ -2637,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AU11">
-        <v>0.0209715003802237</v>
+        <v>0.03041568280490954</v>
       </c>
       <c r="AV11">
         <v>6</v>
@@ -2664,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.02026745137181337</v>
+        <v>0.004875266018713317</v>
       </c>
       <c r="BE11">
         <v>5</v>
@@ -2685,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="BM11">
-        <v>0.02050884996716228</v>
+        <v>0.03034685098475906</v>
       </c>
       <c r="BN11">
         <v>6</v>
@@ -2714,13 +2609,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002135181882835424</v>
+        <v>0.0025710685333744</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2732,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.02572824184920813</v>
+        <v>0.03098875621365738</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -2762,13 +2657,13 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002526354398382967</v>
+        <v>0.002979912423146782</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2780,19 +2675,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AC12">
-        <v>0.01814651702866589</v>
+        <v>0.02940215045124236</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2804,19 +2699,19 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.01749490196541958</v>
+        <v>0.003577453492814111</v>
       </c>
       <c r="AM12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -2828,19 +2723,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="AU12">
-        <v>0.01738210809256508</v>
+        <v>0.02637113760464458</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2852,19 +2747,19 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.01796915711143162</v>
+        <v>0.004533519204281838</v>
       </c>
       <c r="BE12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG12">
         <v>0</v>
@@ -2876,19 +2771,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="BM12">
-        <v>0.01788318068076271</v>
+        <v>0.02729208333398115</v>
       </c>
       <c r="BN12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2900,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2908,13 +2803,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00211458042322201</v>
+        <v>0.001725180296905262</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2926,19 +2821,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.0122303289263492</v>
+        <v>0.01870361541463483</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2950,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002428497465219253</v>
+        <v>0.002039497670045584</v>
       </c>
       <c r="U13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2974,19 +2869,19 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="AC13">
-        <v>0.01629991542501948</v>
+        <v>0.02450491030777451</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2998,19 +2893,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.01656896832865324</v>
+        <v>0.002498884600019901</v>
       </c>
       <c r="AM13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3022,19 +2917,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="AU13">
-        <v>0.01738210809256508</v>
+        <v>0.02556158985677143</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -3046,19 +2941,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.01686172967840298</v>
+        <v>0.003233903687978808</v>
       </c>
       <c r="BE13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -3070,19 +2965,19 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="BM13">
-        <v>0.01788318068076271</v>
+        <v>0.02642848096277613</v>
       </c>
       <c r="BN13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP13">
         <v>1</v>
@@ -3094,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -3102,7 +2997,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001707630469778004</v>
+        <v>0.001725180296905262</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3123,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.0122303289263492</v>
+        <v>0.01834411049845862</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3144,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002018637095377281</v>
+        <v>0.002039497670045584</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -3171,16 +3066,16 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="AC14">
-        <v>0.01629991542501948</v>
+        <v>0.02380490019102395</v>
       </c>
       <c r="AD14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -3192,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.01474971343283421</v>
+        <v>0.002498884600019901</v>
       </c>
       <c r="AM14">
         <v>3</v>
@@ -3219,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="AU14">
-        <v>0.01738210809256508</v>
+        <v>0.02518380090776397</v>
       </c>
       <c r="AV14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -3240,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.01567086285104988</v>
+        <v>0.003233903687978808</v>
       </c>
       <c r="BE14">
         <v>3</v>
@@ -3267,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="BM14">
-        <v>0.01788318068076271</v>
+        <v>0.02642735676082497</v>
       </c>
       <c r="BN14">
         <v>2</v>
@@ -3296,7 +3191,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001707630469778004</v>
+        <v>0.001725180296905262</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3317,16 +3212,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.0122303289263492</v>
+        <v>0.01817634153757639</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3338,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002018637095377281</v>
+        <v>0.002039497670045584</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -3365,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="AC15">
-        <v>0.01629991542501948</v>
+        <v>0.02347822880320702</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -3386,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.01474971343283421</v>
+        <v>0.002498884600019901</v>
       </c>
       <c r="AM15">
         <v>3</v>
@@ -3413,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="AU15">
-        <v>0.01738210809256508</v>
+        <v>0.02516687547084482</v>
       </c>
       <c r="AV15">
         <v>2</v>
@@ -3440,7 +3335,7 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.01567086285104988</v>
+        <v>0.003233903687978808</v>
       </c>
       <c r="BE15">
         <v>3</v>
@@ -3461,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="BM15">
-        <v>0.01788318068076271</v>
+        <v>0.02642735676082497</v>
       </c>
       <c r="BN15">
         <v>2</v>
@@ -3490,7 +3385,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001707630469778004</v>
+        <v>0.001722610771984725</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3508,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.0122303289263492</v>
+        <v>0.01467248046672531</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -3538,7 +3433,7 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002018637095377281</v>
+        <v>0.002027292426673031</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -3556,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="AC16">
-        <v>0.01629991542501948</v>
+        <v>0.02261260488179552</v>
       </c>
       <c r="AD16">
         <v>2</v>
@@ -3586,7 +3481,7 @@
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.01474971343283421</v>
+        <v>0.002472596383525172</v>
       </c>
       <c r="AM16">
         <v>3</v>
@@ -3604,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AU16">
-        <v>0.01738210809256508</v>
+        <v>0.02516687547084482</v>
       </c>
       <c r="AV16">
         <v>2</v>
@@ -3634,7 +3529,7 @@
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.01567086285104988</v>
+        <v>0.003185082714488596</v>
       </c>
       <c r="BE16">
         <v>3</v>
@@ -3652,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="BM16">
-        <v>0.01788318068076271</v>
+        <v>0.02631220977799763</v>
       </c>
       <c r="BN16">
         <v>2</v>
@@ -3676,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3684,7 +3579,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.001705055287326327</v>
+        <v>0.001722610771984725</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -3705,10 +3600,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.0122303289263492</v>
+        <v>0.01467248046672531</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -3732,7 +3627,7 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002006404978731817</v>
+        <v>0.002027292426673031</v>
       </c>
       <c r="U17">
         <v>3</v>
@@ -3753,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AC17">
-        <v>0.01629991542501948</v>
+        <v>0.02261260488179552</v>
       </c>
       <c r="AD17">
         <v>2</v>
@@ -3780,7 +3675,7 @@
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.01463397172823841</v>
+        <v>0.002472596383525172</v>
       </c>
       <c r="AM17">
         <v>3</v>
@@ -3801,10 +3696,10 @@
         <v>1</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="AU17">
-        <v>0.0173075164182635</v>
+        <v>0.0250589357711284</v>
       </c>
       <c r="AV17">
         <v>2</v>
@@ -3828,7 +3723,7 @@
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.01553243442192131</v>
+        <v>0.003185082714488596</v>
       </c>
       <c r="BE17">
         <v>3</v>
@@ -3849,10 +3744,10 @@
         <v>1</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BM17">
-        <v>0.01780523152529139</v>
+        <v>0.02631220977799763</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3878,13 +3773,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.001705055287326327</v>
+        <v>0.001293242841448812</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3896,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.01219025720374452</v>
+        <v>0.01462454647790181</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -3926,13 +3821,13 @@
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002006404978731817</v>
+        <v>0.00152657194169105</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3944,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="AC18">
-        <v>0.01623257507834766</v>
+        <v>0.02251927019956211</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -3974,13 +3869,13 @@
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.01463397172823841</v>
+        <v>0.001867591395891243</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3992,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AU18">
-        <v>0.0173075164182635</v>
+        <v>0.0250589357711284</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -4022,13 +3917,13 @@
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.01553243442192131</v>
+        <v>0.002413222522611553</v>
       </c>
       <c r="BE18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -4040,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BM18">
-        <v>0.01780523152529139</v>
+        <v>0.0261970627951703</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4064,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -4072,7 +3967,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001280079056720584</v>
+        <v>0.001290673316528275</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4090,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.01219025720374452</v>
+        <v>0.01462454647790181</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4120,7 +4015,7 @@
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001510919792371595</v>
+        <v>0.001514366698318497</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4138,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AC19">
-        <v>0.01623257507834766</v>
+        <v>0.02251927019956211</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4168,7 +4063,7 @@
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.01200452490024883</v>
+        <v>0.001841303179396514</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4186,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AU19">
-        <v>0.0172702205811127</v>
+        <v>0.02495099607141198</v>
       </c>
       <c r="AV19">
         <v>2</v>
@@ -4210,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.01337256859066815</v>
+        <v>0.002364401549121342</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4234,19 +4129,19 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="BM19">
-        <v>0.01776625694755573</v>
+        <v>0.02602546652288045</v>
       </c>
       <c r="BN19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP19">
         <v>1</v>
@@ -4258,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4266,7 +4161,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001280079056720584</v>
+        <v>0.001288103791607738</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4284,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.01217022134244218</v>
+        <v>0.01457661248907832</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4308,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001510919792371595</v>
+        <v>0.001502161454945944</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -4332,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AC20">
-        <v>0.01619890490501175</v>
+        <v>0.02242593551732871</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4356,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.01200452490024883</v>
+        <v>0.001815014962901785</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -4380,13 +4275,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AU20">
-        <v>0.01723292474396191</v>
+        <v>0.02457320712240451</v>
       </c>
       <c r="AV20">
         <v>2</v>
@@ -4404,13 +4299,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.01337256859066815</v>
+        <v>0.00231558057563113</v>
       </c>
       <c r="BE20">
         <v>2</v>
@@ -4428,13 +4323,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="BM20">
-        <v>0.01772728236982006</v>
+        <v>0.02579404835527462</v>
       </c>
       <c r="BN20">
         <v>2</v>
@@ -4452,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4460,7 +4355,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001280079056720584</v>
+        <v>0.001288103791607738</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4478,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.01215018548113984</v>
+        <v>0.01440884352819609</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4502,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001510919792371595</v>
+        <v>0.001502161454945944</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -4526,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AC21">
-        <v>0.01616523473167584</v>
+        <v>0.02209926412951178</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4550,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.01200452490024883</v>
+        <v>0.001815014962901785</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -4574,19 +4469,19 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="AU21">
-        <v>0.01697185388390636</v>
+        <v>0.02385467363732863</v>
       </c>
       <c r="AV21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX21">
         <v>1</v>
@@ -4598,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.01337256859066815</v>
+        <v>0.00231558057563113</v>
       </c>
       <c r="BE21">
         <v>2</v>
@@ -4622,19 +4517,19 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="BM21">
-        <v>0.01745446032567043</v>
+        <v>0.02544748320484145</v>
       </c>
       <c r="BN21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP21">
         <v>1</v>
@@ -4646,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4654,7 +4549,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001280079056720584</v>
+        <v>0.001288103791607738</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4672,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.01200993445202345</v>
+        <v>0.01093362933849273</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4696,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001510919792371595</v>
+        <v>0.001502161454945944</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -4720,19 +4615,19 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="AC22">
-        <v>0.01592954351832446</v>
+        <v>0.02062696477358313</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -4744,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.01200452490024883</v>
+        <v>0.001815014962901785</v>
       </c>
       <c r="AM22">
         <v>2</v>
@@ -4768,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AU22">
-        <v>0.01648476002065043</v>
+        <v>0.02385467363732863</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4798,7 +4693,7 @@
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.01337256859066815</v>
+        <v>0.00231558057563113</v>
       </c>
       <c r="BE22">
         <v>2</v>
@@ -4816,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="BM22">
-        <v>0.01722676335916282</v>
+        <v>0.02544748320484145</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4848,7 +4743,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001280079056720584</v>
+        <v>0.0012855342666872</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4866,19 +4761,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.009104734563184093</v>
+        <v>0.01059341152999229</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4890,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001510919792371595</v>
+        <v>0.001489956211573391</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -4914,13 +4809,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AC23">
-        <v>0.01488221661447281</v>
+        <v>0.02062696477358313</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4944,7 +4839,7 @@
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.01200452490024883</v>
+        <v>0.001788726746407056</v>
       </c>
       <c r="AM23">
         <v>2</v>
@@ -4962,13 +4857,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="AU23">
-        <v>0.01648476002065043</v>
+        <v>0.02374673393761222</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4986,13 +4881,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.01337256859066815</v>
+        <v>0.002266759602140919</v>
       </c>
       <c r="BE23">
         <v>2</v>
@@ -5010,13 +4905,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="BM23">
-        <v>0.01722676335916282</v>
+        <v>0.02533233622201411</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -5034,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5042,7 +4937,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001280079056720584</v>
+        <v>0.001282964741766662</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5060,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.008855850695634465</v>
+        <v>0.01059341152999229</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -5090,7 +4985,7 @@
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001510919792371595</v>
+        <v>0.001477750968200838</v>
       </c>
       <c r="U24">
         <v>2</v>
@@ -5108,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="AC24">
-        <v>0.01488221661447281</v>
+        <v>0.02053363009134972</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5132,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.01200452490024883</v>
+        <v>0.001762438529912326</v>
       </c>
       <c r="AM24">
         <v>2</v>
@@ -5156,13 +5051,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AU24">
-        <v>0.01648476002065043</v>
+        <v>0.02374673393761222</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5180,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.01337256859066815</v>
+        <v>0.002217938628650707</v>
       </c>
       <c r="BE24">
         <v>2</v>
@@ -5204,13 +5099,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="BM24">
-        <v>0.01722676335916282</v>
+        <v>0.02533233622201411</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5228,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5236,7 +5131,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.001280079056720584</v>
+        <v>0.001277825691925588</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -5254,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>0.008855850695634465</v>
+        <v>0.01054547754116879</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5278,13 +5173,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001510919792371595</v>
+        <v>0.001453340481455733</v>
       </c>
       <c r="U25">
         <v>2</v>
@@ -5302,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AC25">
-        <v>0.01488221661447281</v>
+        <v>0.02053363009134972</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5326,13 +5221,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.01200452490024883</v>
+        <v>0.001709862096922868</v>
       </c>
       <c r="AM25">
         <v>2</v>
@@ -5350,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="AU25">
-        <v>0.01648476002065043</v>
+        <v>0.02374673393761222</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5374,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.01337256859066815</v>
+        <v>0.002120296681670285</v>
       </c>
       <c r="BE25">
         <v>2</v>
@@ -5398,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="BM25">
-        <v>0.01722676335916282</v>
+        <v>0.02533233622201411</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5422,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5430,7 +5325,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001277503874268907</v>
+        <v>0.001259839017481825</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -5448,13 +5343,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.008855850695634465</v>
+        <v>0.01054547754116879</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5472,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001498687675726131</v>
+        <v>0.001367903777847863</v>
       </c>
       <c r="U26">
         <v>2</v>
@@ -5496,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="AC26">
-        <v>0.01488221661447281</v>
+        <v>0.02053363009134972</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5520,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.01188878319565304</v>
+        <v>0.001525844581459764</v>
       </c>
       <c r="AM26">
         <v>2</v>
@@ -5544,13 +5439,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="AU26">
-        <v>0.01648476002065043</v>
+        <v>0.023692764087754</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5568,13 +5463,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.01323414016153957</v>
+        <v>0.001778549867238805</v>
       </c>
       <c r="BE26">
         <v>2</v>
@@ -5592,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="BM26">
-        <v>0.01722676335916282</v>
+        <v>0.02527476273060044</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5616,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5624,13 +5519,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001277503874268907</v>
+        <v>0.0008613053859923625</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5642,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.008855850695634465</v>
+        <v>0.01054547754116879</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5666,19 +5561,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001498687675726131</v>
+        <v>0.001013646213336516</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -5690,13 +5585,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="AC27">
-        <v>0.01488221661447281</v>
+        <v>0.02048696275023302</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5714,19 +5609,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.01188878319565304</v>
+        <v>0.001236298191762586</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5738,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="AU27">
-        <v>0.01648476002065043</v>
+        <v>0.023692764087754</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5762,19 +5657,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.01323414016153957</v>
+        <v>0.001592541357244298</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>0</v>
@@ -5786,13 +5681,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="BM27">
-        <v>0.01722676335916282</v>
+        <v>0.02527476273060044</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5810,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5818,13 +5713,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.00127492869181723</v>
+        <v>0.0008613053859923625</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5836,13 +5731,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.008855850695634465</v>
+        <v>0.01052151054675705</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5860,19 +5755,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.001486455559080666</v>
+        <v>0.001013646213336516</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -5884,13 +5779,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="AC28">
-        <v>0.01488221661447281</v>
+        <v>0.02048696275023302</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5908,19 +5803,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.01177304149105724</v>
+        <v>0.001236298191762586</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -5932,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="AU28">
-        <v>0.01648476002065043</v>
+        <v>0.023692764087754</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5956,19 +5851,19 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.01309571173241099</v>
+        <v>0.001592541357244298</v>
       </c>
       <c r="BE28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG28">
         <v>0</v>
@@ -5980,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="BM28">
-        <v>0.01722676335916282</v>
+        <v>0.02527476273060044</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -6004,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -6012,13 +5907,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001272353509365554</v>
+        <v>0.0008613053859923625</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -6030,13 +5925,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>0.008855850695634465</v>
+        <v>0.01052151054675705</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6054,19 +5949,19 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001474223442435202</v>
+        <v>0.001013646213336516</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -6078,13 +5973,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="AC29">
-        <v>0.01488221661447281</v>
+        <v>0.02048696275023302</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6102,19 +5997,19 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.01165729978646145</v>
+        <v>0.001236298191762586</v>
       </c>
       <c r="AM29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -6126,13 +6021,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="AU29">
-        <v>0.01648476002065043</v>
+        <v>0.02358482438803759</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6150,19 +6045,19 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.01295728330328241</v>
+        <v>0.001592541357244298</v>
       </c>
       <c r="BE29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG29">
         <v>0</v>
@@ -6174,13 +6069,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="BM29">
-        <v>0.01722676335916282</v>
+        <v>0.0251596157477731</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6198,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6206,13 +6101,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.001269778326913877</v>
+        <v>0.0008613053859923625</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6224,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>0.008855850695634465</v>
+        <v>0.01052151054675705</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6248,19 +6143,19 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001461991325789738</v>
+        <v>0.001013646213336516</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -6272,13 +6167,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="AC30">
-        <v>0.01488221661447281</v>
+        <v>0.02039362806799961</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6296,19 +6191,19 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.01154155808186566</v>
+        <v>0.001236298191762586</v>
       </c>
       <c r="AM30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -6320,13 +6215,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AU30">
-        <v>0.01648476002065043</v>
+        <v>0.02353085453817938</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6344,19 +6239,19 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.01281885487415383</v>
+        <v>0.001592541357244298</v>
       </c>
       <c r="BE30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG30">
         <v>0</v>
@@ -6368,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="BM30">
-        <v>0.01722676335916282</v>
+        <v>0.02510204225635944</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6392,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6400,13 +6295,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.001264627962010524</v>
+        <v>0.000858735861071825</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6418,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.008855850695634465</v>
+        <v>0.01047357655793355</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6442,19 +6337,19 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001437527092498809</v>
+        <v>0.001001440969963963</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -6466,43 +6361,43 @@
         <v>0</v>
       </c>
       <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC31">
+        <v>0.0203469607268829</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31">
         <v>6</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC31">
-        <v>0.01488221661447281</v>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.01131007467267407</v>
+        <v>0.001210009975267857</v>
       </c>
       <c r="AM31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -6514,13 +6409,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AU31">
-        <v>0.01648476002065043</v>
+        <v>0.02342291483846296</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6538,19 +6433,19 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.01254199801589667</v>
+        <v>0.001543720383754087</v>
       </c>
       <c r="BE31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG31">
         <v>0</v>
@@ -6562,13 +6457,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="BM31">
-        <v>0.01722676335916282</v>
+        <v>0.0249868952735321</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6586,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6594,13 +6489,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.001264627962010524</v>
+        <v>0.000858735861071825</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -6612,43 +6507,43 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32">
+        <v>0.0104496095635218</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>6</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32">
-        <v>0.008855850695634465</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001437527092498809</v>
+        <v>0.001001440969963963</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -6660,13 +6555,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AC32">
-        <v>0.01488221661447281</v>
+        <v>0.02025362604464949</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6684,19 +6579,19 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.01131007467267407</v>
+        <v>0.001210009975267857</v>
       </c>
       <c r="AM32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -6708,19 +6603,19 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AU32">
-        <v>0.01648476002065043</v>
+        <v>0.02317733584570795</v>
       </c>
       <c r="AV32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AX32">
         <v>1</v>
@@ -6732,19 +6627,19 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.01254199801589667</v>
+        <v>0.001543720383754087</v>
       </c>
       <c r="BE32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG32">
         <v>0</v>
@@ -6756,13 +6651,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="BM32">
-        <v>0.01722676335916282</v>
+        <v>0.02418086639374074</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6780,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6788,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0008525276436631636</v>
+        <v>0.000858735861071825</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6806,13 +6701,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.008855850695634465</v>
+        <v>0.01040167557469831</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6830,13 +6725,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.001003202489365908</v>
+        <v>0.001001440969963963</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6854,13 +6749,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AC33">
-        <v>0.01488221661447281</v>
+        <v>0.01960028326901564</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6878,13 +6773,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.00925933636766345</v>
+        <v>0.001210009975267857</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6902,13 +6797,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AU33">
-        <v>0.01648476002065043</v>
+        <v>0.02266733694044802</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6926,13 +6821,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.01107427433028641</v>
+        <v>0.001543720383754087</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6950,13 +6845,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="BM33">
-        <v>0.01722676335916282</v>
+        <v>0.02366270497101772</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6974,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6982,7 +6877,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0008525276436631636</v>
+        <v>0.000858735861071825</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7000,13 +6895,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="K34">
-        <v>0.008855850695634465</v>
+        <v>0.01006613765293385</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7024,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T34">
-        <v>0.001003202489365908</v>
+        <v>0.001001440969963963</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7048,13 +6943,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AC34">
-        <v>0.01488221661447281</v>
+        <v>0.01918027719896531</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7072,13 +6967,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL34">
-        <v>0.00925933636766345</v>
+        <v>0.001210009975267857</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7096,13 +6991,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AU34">
-        <v>0.01644746418349963</v>
+        <v>0.02218160829172414</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7120,13 +7015,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD34">
-        <v>0.01107427433028641</v>
+        <v>0.001543720383754087</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7144,13 +7039,13 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="BM34">
-        <v>0.01718778878142715</v>
+        <v>0.02049616294326596</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7168,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7176,7 +7071,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0008525276436631636</v>
+        <v>0.0008561663361512875</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7194,13 +7089,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="K35">
-        <v>0.008855850695634465</v>
+        <v>0.009850434703228123</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7218,13 +7113,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T35">
-        <v>0.001003202489365908</v>
+        <v>0.0009892357265914099</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7242,13 +7137,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="AC35">
-        <v>0.0148485464411369</v>
+        <v>0.01661357343754659</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7266,13 +7161,13 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL35">
-        <v>0.00925933636766345</v>
+        <v>0.001183721758773127</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7290,13 +7185,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AU35">
-        <v>0.01644746418349963</v>
+        <v>0.01921326654952261</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7314,13 +7209,13 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="BC35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.01107427433028641</v>
+        <v>0.001494899410263875</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7338,19 +7233,19 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="BM35">
-        <v>0.01718778878142715</v>
+        <v>0.02010551472483304</v>
       </c>
       <c r="BN35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BO35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BP35">
         <v>1</v>
@@ -7362,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:71">
@@ -7370,7 +7265,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0008525276436631636</v>
+        <v>0.0008510272863102126</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7388,13 +7283,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="K36">
-        <v>0.008835814834332122</v>
+        <v>0.008532250010582025</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7412,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T36">
-        <v>0.001003202489365908</v>
+        <v>0.0009648252398463043</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7436,13 +7331,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AC36">
-        <v>0.0148485464411369</v>
+        <v>0.01600689800302944</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7460,13 +7355,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AK36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AL36">
-        <v>0.00925933636766345</v>
+        <v>0.001131145325783669</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7484,13 +7379,13 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AU36">
-        <v>0.01644746418349963</v>
+        <v>0.01851165850136589</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7508,13 +7403,13 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="BC36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BD36">
-        <v>0.01107427433028641</v>
+        <v>0.001397257463283453</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7532,13 +7427,13 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="BM36">
-        <v>0.01718778878142715</v>
+        <v>0.01974770755488827</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7556,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:71">
@@ -7564,7 +7459,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0008525276436631636</v>
+        <v>0.0008433187115486002</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7582,13 +7477,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="K37">
-        <v>0.008835814834332122</v>
+        <v>0.008220679083229309</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7606,13 +7501,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T37">
-        <v>0.001003202489365908</v>
+        <v>0.0009282095097286457</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7630,19 +7525,19 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="AC37">
-        <v>0.0148485464411369</v>
+        <v>0.01533249966758971</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF37">
         <v>1</v>
@@ -7654,13 +7549,13 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="AK37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AL37">
-        <v>0.00925933636766345</v>
+        <v>0.001052280676299481</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7678,19 +7573,19 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="AU37">
-        <v>0.01644746418349963</v>
+        <v>0.01674757889296412</v>
       </c>
       <c r="AV37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX37">
         <v>1</v>
@@ -7702,13 +7597,13 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="BC37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="BD37">
-        <v>0.01107427433028641</v>
+        <v>0.001250794542812819</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -7726,19 +7621,19 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="BM37">
-        <v>0.01718778878142715</v>
+        <v>0.01744589210029269</v>
       </c>
       <c r="BN37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP37">
         <v>1</v>
@@ -7750,39 +7645,15 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:71">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.0008525276436631636</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="K38">
-        <v>0.008835814834332122</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7800,37 +7671,13 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38">
-        <v>0.001003202489365908</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AC38">
-        <v>0.0148485464411369</v>
+        <v>0</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7848,37 +7695,13 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>1</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL38">
-        <v>0.00925933636766345</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AU38">
-        <v>0.01641016834634884</v>
+        <v>0</v>
       </c>
       <c r="AV38">
         <v>1</v>
@@ -7896,37 +7719,13 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>2</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD38">
-        <v>0.01107427433028641</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>1</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="BM38">
-        <v>0.01714881420369149</v>
+        <v>0</v>
       </c>
       <c r="BN38">
         <v>1</v>
@@ -7944,3308 +7743,6 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:71">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.0008525276436631636</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K39">
-        <v>0.008835814834332122</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39">
-        <v>0.001003202489365908</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC39">
-        <v>0.01481487626780099</v>
-      </c>
-      <c r="AD39">
-        <v>1</v>
-      </c>
-      <c r="AE39">
-        <v>1</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>2</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL39">
-        <v>0.00925933636766345</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU39">
-        <v>0.01641016834634884</v>
-      </c>
-      <c r="AV39">
-        <v>1</v>
-      </c>
-      <c r="AW39">
-        <v>1</v>
-      </c>
-      <c r="AX39">
-        <v>1</v>
-      </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA39">
-        <v>2</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD39">
-        <v>0.01107427433028641</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>1</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>0</v>
-      </c>
-      <c r="BL39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM39">
-        <v>0.01714881420369149</v>
-      </c>
-      <c r="BN39">
-        <v>1</v>
-      </c>
-      <c r="BO39">
-        <v>1</v>
-      </c>
-      <c r="BP39">
-        <v>1</v>
-      </c>
-      <c r="BQ39">
-        <v>0</v>
-      </c>
-      <c r="BR39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.0008525276436631636</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K40">
-        <v>0.008815778973029782</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>2</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40">
-        <v>0.001003202489365908</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC40">
-        <v>0.01481487626780099</v>
-      </c>
-      <c r="AD40">
-        <v>1</v>
-      </c>
-      <c r="AE40">
-        <v>1</v>
-      </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>2</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL40">
-        <v>0.00925933636766345</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU40">
-        <v>0.01641016834634884</v>
-      </c>
-      <c r="AV40">
-        <v>1</v>
-      </c>
-      <c r="AW40">
-        <v>1</v>
-      </c>
-      <c r="AX40">
-        <v>1</v>
-      </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="AZ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>2</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD40">
-        <v>0.01107427433028641</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40">
-        <v>1</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>0</v>
-      </c>
-      <c r="BL40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM40">
-        <v>0.01714881420369149</v>
-      </c>
-      <c r="BN40">
-        <v>1</v>
-      </c>
-      <c r="BO40">
-        <v>1</v>
-      </c>
-      <c r="BP40">
-        <v>1</v>
-      </c>
-      <c r="BQ40">
-        <v>0</v>
-      </c>
-      <c r="BR40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.0008525276436631636</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K41">
-        <v>0.008815778973029782</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>2</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41">
-        <v>0.001003202489365908</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC41">
-        <v>0.01481487626780099</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <v>1</v>
-      </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>2</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL41">
-        <v>0.00925933636766345</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU41">
-        <v>0.01637287250919805</v>
-      </c>
-      <c r="AV41">
-        <v>1</v>
-      </c>
-      <c r="AW41">
-        <v>1</v>
-      </c>
-      <c r="AX41">
-        <v>1</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>3</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD41">
-        <v>0.01107427433028641</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>1</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>0</v>
-      </c>
-      <c r="BL41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM41">
-        <v>0.01710983962595583</v>
-      </c>
-      <c r="BN41">
-        <v>1</v>
-      </c>
-      <c r="BO41">
-        <v>1</v>
-      </c>
-      <c r="BP41">
-        <v>1</v>
-      </c>
-      <c r="BQ41">
-        <v>0</v>
-      </c>
-      <c r="BR41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.0008525276436631636</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K42">
-        <v>0.008815778973029782</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>2</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42">
-        <v>0.001003202489365908</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC42">
-        <v>0.01478120609446507</v>
-      </c>
-      <c r="AD42">
-        <v>1</v>
-      </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>3</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL42">
-        <v>0.00925933636766345</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU42">
-        <v>0.01637287250919805</v>
-      </c>
-      <c r="AV42">
-        <v>1</v>
-      </c>
-      <c r="AW42">
-        <v>1</v>
-      </c>
-      <c r="AX42">
-        <v>1</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>3</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD42">
-        <v>0.01107427433028641</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>1</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>0</v>
-      </c>
-      <c r="BL42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BM42">
-        <v>0.01710983962595583</v>
-      </c>
-      <c r="BN42">
-        <v>1</v>
-      </c>
-      <c r="BO42">
-        <v>1</v>
-      </c>
-      <c r="BP42">
-        <v>1</v>
-      </c>
-      <c r="BQ42">
-        <v>0</v>
-      </c>
-      <c r="BR42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:71">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.0008525276436631636</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K43">
-        <v>0.008795743111727441</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43">
-        <v>0.001003202489365908</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC43">
-        <v>0.01478120609446507</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
-      <c r="AE43">
-        <v>1</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>3</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL43">
-        <v>0.00925933636766345</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU43">
-        <v>0.01637287250919805</v>
-      </c>
-      <c r="AV43">
-        <v>1</v>
-      </c>
-      <c r="AW43">
-        <v>1</v>
-      </c>
-      <c r="AX43">
-        <v>1</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>3</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD43">
-        <v>0.01107427433028641</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>1</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>0</v>
-      </c>
-      <c r="BL43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM43">
-        <v>0.01710983962595583</v>
-      </c>
-      <c r="BN43">
-        <v>1</v>
-      </c>
-      <c r="BO43">
-        <v>1</v>
-      </c>
-      <c r="BP43">
-        <v>1</v>
-      </c>
-      <c r="BQ43">
-        <v>0</v>
-      </c>
-      <c r="BR43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.0008525276436631636</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K44">
-        <v>0.008795743111727441</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>3</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T44">
-        <v>0.001003202489365908</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC44">
-        <v>0.01478120609446507</v>
-      </c>
-      <c r="AD44">
-        <v>1</v>
-      </c>
-      <c r="AE44">
-        <v>1</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>3</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL44">
-        <v>0.00925933636766345</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-      <c r="AT44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU44">
-        <v>0.01633557667204726</v>
-      </c>
-      <c r="AV44">
-        <v>1</v>
-      </c>
-      <c r="AW44">
-        <v>1</v>
-      </c>
-      <c r="AX44">
-        <v>1</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>4</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD44">
-        <v>0.01107427433028641</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>1</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>0</v>
-      </c>
-      <c r="BL44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM44">
-        <v>0.01707086504822017</v>
-      </c>
-      <c r="BN44">
-        <v>1</v>
-      </c>
-      <c r="BO44">
-        <v>1</v>
-      </c>
-      <c r="BP44">
-        <v>1</v>
-      </c>
-      <c r="BQ44">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:71">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.0008499524612114868</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K45">
-        <v>0.008795743111727441</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>3</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T45">
-        <v>0.0009909703727204442</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC45">
-        <v>0.01474753592112916</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45">
-        <v>1</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>4</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL45">
-        <v>0.009143594663067658</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>1</v>
-      </c>
-      <c r="AT45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU45">
-        <v>0.01633557667204726</v>
-      </c>
-      <c r="AV45">
-        <v>1</v>
-      </c>
-      <c r="AW45">
-        <v>1</v>
-      </c>
-      <c r="AX45">
-        <v>1</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>4</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD45">
-        <v>0.01093584590115783</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>1</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>1</v>
-      </c>
-      <c r="BL45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM45">
-        <v>0.01707086504822017</v>
-      </c>
-      <c r="BN45">
-        <v>1</v>
-      </c>
-      <c r="BO45">
-        <v>1</v>
-      </c>
-      <c r="BP45">
-        <v>1</v>
-      </c>
-      <c r="BQ45">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:71">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.0008499524612114868</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K46">
-        <v>0.008775707250425101</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>4</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T46">
-        <v>0.0009909703727204442</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC46">
-        <v>0.01474753592112916</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AE46">
-        <v>1</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>4</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL46">
-        <v>0.009143594663067658</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>1</v>
-      </c>
-      <c r="AT46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU46">
-        <v>0.01626098499774567</v>
-      </c>
-      <c r="AV46">
-        <v>1</v>
-      </c>
-      <c r="AW46">
-        <v>1</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>6</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD46">
-        <v>0.01093584590115783</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>1</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>1</v>
-      </c>
-      <c r="BL46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BM46">
-        <v>0.01699291589274884</v>
-      </c>
-      <c r="BN46">
-        <v>1</v>
-      </c>
-      <c r="BO46">
-        <v>1</v>
-      </c>
-      <c r="BP46">
-        <v>1</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:71">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.0008499524612114868</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K47">
-        <v>0.008775707250425101</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>4</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T47">
-        <v>0.0009909703727204442</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC47">
-        <v>0.01468019557445734</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>6</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL47">
-        <v>0.009143594663067658</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>1</v>
-      </c>
-      <c r="AT47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU47">
-        <v>0.01592532246338853</v>
-      </c>
-      <c r="AV47">
-        <v>1</v>
-      </c>
-      <c r="AW47">
-        <v>1</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>15</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD47">
-        <v>0.01093584590115783</v>
-      </c>
-      <c r="BE47">
-        <v>1</v>
-      </c>
-      <c r="BF47">
-        <v>1</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-      <c r="BH47">
-        <v>1</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>1</v>
-      </c>
-      <c r="BL47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM47">
-        <v>0.01664214469312788</v>
-      </c>
-      <c r="BN47">
-        <v>1</v>
-      </c>
-      <c r="BO47">
-        <v>1</v>
-      </c>
-      <c r="BP47">
-        <v>1</v>
-      </c>
-      <c r="BQ47">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:71">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.0008499524612114868</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K48">
-        <v>0.00873563552782042</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>6</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T48">
-        <v>0.0009909703727204442</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC48">
-        <v>0.01437716401443414</v>
-      </c>
-      <c r="AD48">
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>15</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL48">
-        <v>0.009143594663067658</v>
-      </c>
-      <c r="AM48">
-        <v>1</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>1</v>
-      </c>
-      <c r="AT48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU48">
-        <v>0.01588802662623774</v>
-      </c>
-      <c r="AV48">
-        <v>1</v>
-      </c>
-      <c r="AW48">
-        <v>1</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>16</v>
-      </c>
-      <c r="BC48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD48">
-        <v>0.01093584590115783</v>
-      </c>
-      <c r="BE48">
-        <v>1</v>
-      </c>
-      <c r="BF48">
-        <v>1</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>1</v>
-      </c>
-      <c r="BI48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>1</v>
-      </c>
-      <c r="BL48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM48">
-        <v>0.01660317011539222</v>
-      </c>
-      <c r="BN48">
-        <v>1</v>
-      </c>
-      <c r="BO48">
-        <v>1</v>
-      </c>
-      <c r="BP48">
-        <v>1</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS48">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:71">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.0008499524612114868</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K49">
-        <v>0.008555312776099357</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>15</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T49">
-        <v>0.0009909703727204442</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>1</v>
-      </c>
-      <c r="Y49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC49">
-        <v>0.01434349384109823</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>16</v>
-      </c>
-      <c r="AK49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL49">
-        <v>0.009143594663067658</v>
-      </c>
-      <c r="AM49">
-        <v>1</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>1</v>
-      </c>
-      <c r="AT49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU49">
-        <v>0.01577613911478536</v>
-      </c>
-      <c r="AV49">
-        <v>1</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="AX49">
-        <v>1</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>19</v>
-      </c>
-      <c r="BC49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD49">
-        <v>0.01093584590115783</v>
-      </c>
-      <c r="BE49">
-        <v>1</v>
-      </c>
-      <c r="BF49">
-        <v>1</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-      <c r="BH49">
-        <v>1</v>
-      </c>
-      <c r="BI49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ49">
-        <v>1</v>
-      </c>
-      <c r="BL49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM49">
-        <v>0.01648624638218523</v>
-      </c>
-      <c r="BN49">
-        <v>1</v>
-      </c>
-      <c r="BO49">
-        <v>1</v>
-      </c>
-      <c r="BP49">
-        <v>1</v>
-      </c>
-      <c r="BQ49">
-        <v>0</v>
-      </c>
-      <c r="BR49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS49">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:71">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.0008473772787598102</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K50">
-        <v>0.008535276914797016</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>16</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50">
-        <v>0.0009787382560749796</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>2</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC50">
-        <v>0.01424248332109049</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AE50">
-        <v>1</v>
-      </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>19</v>
-      </c>
-      <c r="AK50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL50">
-        <v>0.009027852958471862</v>
-      </c>
-      <c r="AM50">
-        <v>1</v>
-      </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>1</v>
-      </c>
-      <c r="AQ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>2</v>
-      </c>
-      <c r="AT50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU50">
-        <v>0.01566425160333298</v>
-      </c>
-      <c r="AV50">
-        <v>1</v>
-      </c>
-      <c r="AW50">
-        <v>1</v>
-      </c>
-      <c r="AX50">
-        <v>1</v>
-      </c>
-      <c r="AY50">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>22</v>
-      </c>
-      <c r="BC50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD50">
-        <v>0.01079741747202925</v>
-      </c>
-      <c r="BE50">
-        <v>1</v>
-      </c>
-      <c r="BF50">
-        <v>1</v>
-      </c>
-      <c r="BG50">
-        <v>0</v>
-      </c>
-      <c r="BH50">
-        <v>1</v>
-      </c>
-      <c r="BI50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ50">
-        <v>2</v>
-      </c>
-      <c r="BL50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM50">
-        <v>0.01636932264897824</v>
-      </c>
-      <c r="BN50">
-        <v>1</v>
-      </c>
-      <c r="BO50">
-        <v>1</v>
-      </c>
-      <c r="BP50">
-        <v>1</v>
-      </c>
-      <c r="BQ50">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS50">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:71">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.0008448020963081335</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51">
-        <v>0.008475169330889995</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>19</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T51">
-        <v>0.0009665061394295155</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>1</v>
-      </c>
-      <c r="Y51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>3</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC51">
-        <v>0.01414147280108276</v>
-      </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
-      <c r="AE51">
-        <v>1</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>22</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL51">
-        <v>0.008912111253876072</v>
-      </c>
-      <c r="AM51">
-        <v>1</v>
-      </c>
-      <c r="AN51">
-        <v>1</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>1</v>
-      </c>
-      <c r="AQ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>3</v>
-      </c>
-      <c r="AT51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU51">
-        <v>0.01551506825472981</v>
-      </c>
-      <c r="AV51">
-        <v>1</v>
-      </c>
-      <c r="AW51">
-        <v>1</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>26</v>
-      </c>
-      <c r="BC51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD51">
-        <v>0.01065898904290067</v>
-      </c>
-      <c r="BE51">
-        <v>1</v>
-      </c>
-      <c r="BF51">
-        <v>1</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-      <c r="BH51">
-        <v>1</v>
-      </c>
-      <c r="BI51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ51">
-        <v>3</v>
-      </c>
-      <c r="BL51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM51">
-        <v>0.0162134243380356</v>
-      </c>
-      <c r="BN51">
-        <v>1</v>
-      </c>
-      <c r="BO51">
-        <v>1</v>
-      </c>
-      <c r="BP51">
-        <v>1</v>
-      </c>
-      <c r="BQ51">
-        <v>0</v>
-      </c>
-      <c r="BR51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS51">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:71">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.0008422269138564567</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>4</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K52">
-        <v>0.008415061746982972</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>22</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T52">
-        <v>0.0009542740227840512</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-      <c r="Y52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>4</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC52">
-        <v>0.01400679210773912</v>
-      </c>
-      <c r="AD52">
-        <v>1</v>
-      </c>
-      <c r="AE52">
-        <v>1</v>
-      </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>26</v>
-      </c>
-      <c r="AK52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL52">
-        <v>0.008796369549280278</v>
-      </c>
-      <c r="AM52">
-        <v>1</v>
-      </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>1</v>
-      </c>
-      <c r="AQ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>4</v>
-      </c>
-      <c r="AT52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU52">
-        <v>0.01551506825472981</v>
-      </c>
-      <c r="AV52">
-        <v>1</v>
-      </c>
-      <c r="AW52">
-        <v>1</v>
-      </c>
-      <c r="AX52">
-        <v>1</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
-      <c r="AZ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA52">
-        <v>26</v>
-      </c>
-      <c r="BC52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD52">
-        <v>0.01052056061377209</v>
-      </c>
-      <c r="BE52">
-        <v>1</v>
-      </c>
-      <c r="BF52">
-        <v>1</v>
-      </c>
-      <c r="BG52">
-        <v>0</v>
-      </c>
-      <c r="BH52">
-        <v>1</v>
-      </c>
-      <c r="BI52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ52">
-        <v>4</v>
-      </c>
-      <c r="BL52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM52">
-        <v>0.0162134243380356</v>
-      </c>
-      <c r="BN52">
-        <v>1</v>
-      </c>
-      <c r="BO52">
-        <v>1</v>
-      </c>
-      <c r="BP52">
-        <v>1</v>
-      </c>
-      <c r="BQ52">
-        <v>0</v>
-      </c>
-      <c r="BR52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS52">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:71">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.0006465130475290273</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>80</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K53">
-        <v>0.008334918301773611</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>26</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T53">
-        <v>2.463315772876224E-05</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="V53">
-        <v>1</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>1</v>
-      </c>
-      <c r="Y53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>80</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC53">
-        <v>0.01400679210773912</v>
-      </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
-      <c r="AE53">
-        <v>1</v>
-      </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>26</v>
-      </c>
-      <c r="AK53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>1</v>
-      </c>
-      <c r="AN53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>1</v>
-      </c>
-      <c r="AQ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>80</v>
-      </c>
-      <c r="AT53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU53">
-        <v>0.01404346659135875</v>
-      </c>
-      <c r="AV53">
-        <v>10</v>
-      </c>
-      <c r="AW53">
-        <v>10</v>
-      </c>
-      <c r="AX53">
-        <v>1</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>282</v>
-      </c>
-      <c r="BC53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD53">
-        <v>0</v>
-      </c>
-      <c r="BE53">
-        <v>1</v>
-      </c>
-      <c r="BF53">
-        <v>1</v>
-      </c>
-      <c r="BG53">
-        <v>0</v>
-      </c>
-      <c r="BH53">
-        <v>1</v>
-      </c>
-      <c r="BI53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ53">
-        <v>80</v>
-      </c>
-      <c r="BL53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM53">
-        <v>0.01336828016333223</v>
-      </c>
-      <c r="BN53">
-        <v>1</v>
-      </c>
-      <c r="BO53">
-        <v>1</v>
-      </c>
-      <c r="BP53">
-        <v>1</v>
-      </c>
-      <c r="BQ53">
-        <v>0</v>
-      </c>
-      <c r="BR53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS53">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:71">
-      <c r="J54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K54">
-        <v>0.008334918301773611</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>26</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC54">
-        <v>0.01154886945421759</v>
-      </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AE54">
-        <v>1</v>
-      </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>99</v>
-      </c>
-      <c r="AT54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU54">
-        <v>0.01279247214272194</v>
-      </c>
-      <c r="AV54">
-        <v>1</v>
-      </c>
-      <c r="AW54">
-        <v>1</v>
-      </c>
-      <c r="AX54">
-        <v>1</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>99</v>
-      </c>
-      <c r="BL54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM54">
-        <v>0.01214368833210503</v>
-      </c>
-      <c r="BN54">
-        <v>10</v>
-      </c>
-      <c r="BO54">
-        <v>10</v>
-      </c>
-      <c r="BP54">
-        <v>1</v>
-      </c>
-      <c r="BQ54">
-        <v>0</v>
-      </c>
-      <c r="BR54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS54">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="55" spans="1:71">
-      <c r="J55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K55">
-        <v>0.006872300426702762</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>99</v>
-      </c>
-      <c r="AB55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC55">
-        <v>0.01104736838461732</v>
-      </c>
-      <c r="AD55">
-        <v>2</v>
-      </c>
-      <c r="AE55">
-        <v>2</v>
-      </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>156</v>
-      </c>
-      <c r="AT55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU55">
-        <v>0.0115639574970414</v>
-      </c>
-      <c r="AV55">
-        <v>2</v>
-      </c>
-      <c r="AW55">
-        <v>2</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>156</v>
-      </c>
-      <c r="BL55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BM55">
-        <v>0.01180314655399936</v>
-      </c>
-      <c r="BN55">
-        <v>2</v>
-      </c>
-      <c r="BO55">
-        <v>2</v>
-      </c>
-      <c r="BP55">
-        <v>1</v>
-      </c>
-      <c r="BQ55">
-        <v>0</v>
-      </c>
-      <c r="BR55" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS55">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:71">
-      <c r="J56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K56">
-        <v>0.005710220471167018</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>157</v>
-      </c>
-      <c r="AB56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC56">
-        <v>0.009595999400734729</v>
-      </c>
-      <c r="AD56">
-        <v>1</v>
-      </c>
-      <c r="AE56">
-        <v>1</v>
-      </c>
-      <c r="AF56">
-        <v>1</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI56">
-        <v>157</v>
-      </c>
-      <c r="AT56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU56">
-        <v>0.01062931358797595</v>
-      </c>
-      <c r="AV56">
-        <v>1</v>
-      </c>
-      <c r="AW56">
-        <v>1</v>
-      </c>
-      <c r="AX56">
-        <v>1</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA56">
-        <v>157</v>
-      </c>
-      <c r="BL56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BM56">
-        <v>0.01110775465466381</v>
-      </c>
-      <c r="BN56">
-        <v>1</v>
-      </c>
-      <c r="BO56">
-        <v>1</v>
-      </c>
-      <c r="BP56">
-        <v>1</v>
-      </c>
-      <c r="BQ56">
-        <v>0</v>
-      </c>
-      <c r="BR56" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS56">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:71">
-      <c r="J57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>442</v>
-      </c>
-      <c r="AB57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>1</v>
-      </c>
-      <c r="AE57">
-        <v>1</v>
-      </c>
-      <c r="AF57">
-        <v>1</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>442</v>
-      </c>
-      <c r="AT57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU57">
-        <v>0</v>
-      </c>
-      <c r="AV57">
-        <v>1</v>
-      </c>
-      <c r="AW57">
-        <v>1</v>
-      </c>
-      <c r="AX57">
-        <v>1</v>
-      </c>
-      <c r="AY57">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA57">
-        <v>442</v>
-      </c>
-      <c r="BL57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM57">
-        <v>0</v>
-      </c>
-      <c r="BN57">
-        <v>1</v>
-      </c>
-      <c r="BO57">
-        <v>1</v>
-      </c>
-      <c r="BP57">
-        <v>1</v>
-      </c>
-      <c r="BQ57">
-        <v>0</v>
-      </c>
-      <c r="BR57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS57">
         <v>442</v>
       </c>
     </row>
